--- a/temp_responses/runOrderTables.xlsx
+++ b/temp_responses/runOrderTables.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umut/Desktop/responses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umut/GitHub/ecoli_multiple_growth_conditions/temp_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="39">
   <si>
     <t>run No</t>
   </si>
@@ -141,13 +142,16 @@
   </si>
   <si>
     <t>protein</t>
+  </si>
+  <si>
+    <t>vst</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +167,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +192,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -242,11 +262,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -272,8 +402,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,4 +995,542 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D45" sqref="A25:D45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18">
+        <v>1</v>
+      </c>
+      <c r="D1" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>3</v>
+      </c>
+      <c r="D25" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A42"/>
+    <mergeCell ref="A43:A45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>